--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/49.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/49.xlsx
@@ -479,13 +479,13 @@
         <v>0.004733316995640703</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.805821655116237</v>
+        <v>-1.825796744775104</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04139917805905027</v>
+        <v>0.03880519454714673</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.07618949441683892</v>
+        <v>-0.07069301964525691</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0006883026021685157</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.842899249537596</v>
+        <v>-1.852065549890491</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01738436832536567</v>
+        <v>0.01138578145408875</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.06282449805787478</v>
+        <v>-0.06335494250175311</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.01249650263131036</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.943368103040658</v>
+        <v>-1.951787531320496</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0155173533671826</v>
+        <v>-0.01101723269938394</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06302912054364386</v>
+        <v>-0.05575715220323469</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.03763683358091394</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.9926223093844</v>
+        <v>-2.011157171547276</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03622987098437835</v>
+        <v>-0.03380273349933269</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.05995191316150102</v>
+        <v>-0.05493866226015833</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.08197455215505951</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.95691096356033</v>
+        <v>-1.987608271473496</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.02309625543624542</v>
+        <v>-0.02653076515892352</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.07424085874466867</v>
+        <v>-0.06466137837243267</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.147190928689783</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.832577619149667</v>
+        <v>-1.869045281161522</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01789277650154579</v>
+        <v>0.01421271979594479</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.06752924121144253</v>
+        <v>-0.06503442090418095</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2308479815812001</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.566583340831503</v>
+        <v>-1.61114933122245</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05647513320286825</v>
+        <v>0.05646254104989785</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06397510603554558</v>
+        <v>-0.06304013867749297</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.327388638212642</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.16799447874453</v>
+        <v>-1.224521440438241</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05287692549157488</v>
+        <v>0.05927216518141958</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04964051389786021</v>
+        <v>-0.05010170150040132</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.4269842824477075</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6635347295301905</v>
+        <v>-0.7224864676802653</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04810764755403379</v>
+        <v>0.05694576492013716</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01909352481077777</v>
+        <v>-0.01585576747826225</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.5155411422625799</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1554712635376333</v>
+        <v>-0.2128914810826824</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.04584397977728295</v>
+        <v>-0.03482112387081424</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01966669605125167</v>
+        <v>0.02326490376254504</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.576705530826748</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4277925399941857</v>
+        <v>0.3662090418732963</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.2299821807017652</v>
+        <v>-0.22772503728182</v>
       </c>
       <c r="G12" t="n">
-        <v>0.08129111866929489</v>
+        <v>0.08691351497058096</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.5964986703678294</v>
       </c>
       <c r="E13" t="n">
-        <v>1.004487961732817</v>
+        <v>0.9337137659626528</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.5178403716243563</v>
+        <v>-0.5271695829563054</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1730123609057286</v>
+        <v>0.1800450783397</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.5693725066347687</v>
       </c>
       <c r="E14" t="n">
-        <v>1.590024648875794</v>
+        <v>1.511218233529632</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.8314762736964888</v>
+        <v>-0.8472865087603935</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2816432905622955</v>
+        <v>0.2977943007659619</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.4958322886032442</v>
       </c>
       <c r="E15" t="n">
-        <v>2.266154006545232</v>
+        <v>2.171516106877029</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.169992696019021</v>
+        <v>-1.188038038235173</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4028238746729929</v>
+        <v>0.4168562551393885</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.3824253919558685</v>
       </c>
       <c r="E16" t="n">
-        <v>2.80366107422084</v>
+        <v>2.697268399754763</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.519510724989885</v>
+        <v>-1.538248635619409</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5271304607585934</v>
+        <v>0.53459288541268</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.2377982285320607</v>
       </c>
       <c r="E17" t="n">
-        <v>3.301869606494934</v>
+        <v>3.195152684089869</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.860793485918103</v>
+        <v>-1.879574682073463</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6515708384695045</v>
+        <v>0.6675156521682805</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.07200063427897564</v>
       </c>
       <c r="E18" t="n">
-        <v>3.718975229524888</v>
+        <v>3.623007283699185</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.176993465138835</v>
+        <v>-2.207749011759489</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8037658953463106</v>
+        <v>0.8146628297230752</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1035268895338046</v>
       </c>
       <c r="E19" t="n">
-        <v>4.070090100894312</v>
+        <v>3.981660132640517</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.533426947119132</v>
+        <v>-2.569837944442621</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9478941042264507</v>
+        <v>0.9598110029938182</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.278646729144422</v>
       </c>
       <c r="E20" t="n">
-        <v>4.379605220906879</v>
+        <v>4.286446899212698</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.860031979741222</v>
+        <v>-2.905761957272371</v>
       </c>
       <c r="G20" t="n">
-        <v>1.073253709104201</v>
+        <v>1.093467262659945</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.4406806069869302</v>
       </c>
       <c r="E21" t="n">
-        <v>4.60465690085133</v>
+        <v>4.528104480886871</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.135641940871412</v>
+        <v>-3.187002184799453</v>
       </c>
       <c r="G21" t="n">
-        <v>1.18506887944316</v>
+        <v>1.21165563642105</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5783798386479254</v>
       </c>
       <c r="E22" t="n">
-        <v>4.772765291044486</v>
+        <v>4.696862940977124</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.359155804134352</v>
+        <v>-3.423271899021414</v>
       </c>
       <c r="G22" t="n">
-        <v>1.273864020133095</v>
+        <v>1.307921071860678</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6823463440332458</v>
       </c>
       <c r="E23" t="n">
-        <v>4.887092595901041</v>
+        <v>4.814909653017311</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.499062493731164</v>
+        <v>-3.563250206488245</v>
       </c>
       <c r="G23" t="n">
-        <v>1.352708211938168</v>
+        <v>1.390376063530015</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.7529870901344964</v>
       </c>
       <c r="E24" t="n">
-        <v>4.95668785134935</v>
+        <v>4.884168068373663</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.616117573724932</v>
+        <v>-3.683250276257967</v>
       </c>
       <c r="G24" t="n">
-        <v>1.41510547794477</v>
+        <v>1.45487149702531</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7949821272689657</v>
       </c>
       <c r="E25" t="n">
-        <v>4.954148958506692</v>
+        <v>4.889648802954032</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.717455285782952</v>
+        <v>-3.784029211527925</v>
       </c>
       <c r="G25" t="n">
-        <v>1.454473270187622</v>
+        <v>1.494593443570455</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.815640107739506</v>
       </c>
       <c r="E26" t="n">
-        <v>4.946296177110523</v>
+        <v>4.889746392139553</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.734195766147546</v>
+        <v>-3.797389485829526</v>
       </c>
       <c r="G26" t="n">
-        <v>1.480748371379494</v>
+        <v>1.523977232526896</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8215389596860684</v>
       </c>
       <c r="E27" t="n">
-        <v>4.908508700065457</v>
+        <v>4.861390437669321</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.683533599699801</v>
+        <v>-3.735546274553621</v>
       </c>
       <c r="G27" t="n">
-        <v>1.475728824401666</v>
+        <v>1.517145989540451</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8175940131153012</v>
       </c>
       <c r="E28" t="n">
-        <v>4.758318943549188</v>
+        <v>4.712392213627877</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.612440665057573</v>
+        <v>-3.659894980536107</v>
       </c>
       <c r="G28" t="n">
-        <v>1.429680895008014</v>
+        <v>1.47413591705091</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8074076799181226</v>
       </c>
       <c r="E29" t="n">
-        <v>4.631931504185228</v>
+        <v>4.590232589623731</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.522336727468276</v>
+        <v>-3.567756623232529</v>
       </c>
       <c r="G29" t="n">
-        <v>1.384070542930084</v>
+        <v>1.425772605529825</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7945159010964328</v>
       </c>
       <c r="E30" t="n">
-        <v>4.485083390263481</v>
+        <v>4.453994938598671</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.39919648955156</v>
+        <v>-3.455397629287161</v>
       </c>
       <c r="G30" t="n">
-        <v>1.330974155911248</v>
+        <v>1.371517740437711</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7833935096578898</v>
       </c>
       <c r="E31" t="n">
-        <v>4.332280762005852</v>
+        <v>4.306627398366894</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.278858792680319</v>
+        <v>-3.337743635017738</v>
       </c>
       <c r="G31" t="n">
-        <v>1.262047858589491</v>
+        <v>1.293547129244961</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7761208661931588</v>
       </c>
       <c r="E32" t="n">
-        <v>4.192865166374887</v>
+        <v>4.162440950779265</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.141396554778887</v>
+        <v>-3.203756831336138</v>
       </c>
       <c r="G32" t="n">
-        <v>1.193559138583455</v>
+        <v>1.227894791695509</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.774119091795371</v>
       </c>
       <c r="E33" t="n">
-        <v>3.989390140545225</v>
+        <v>3.961652775589664</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.020903030014638</v>
+        <v>-3.090964195122853</v>
       </c>
       <c r="G33" t="n">
-        <v>1.122731426163167</v>
+        <v>1.154408560979344</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7760432972471476</v>
       </c>
       <c r="E34" t="n">
-        <v>3.732713268415601</v>
+        <v>3.702529877745539</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.941425295513241</v>
+        <v>-3.008428141468769</v>
       </c>
       <c r="G34" t="n">
-        <v>1.063397201366616</v>
+        <v>1.094002429161187</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7811119193810853</v>
       </c>
       <c r="E35" t="n">
-        <v>3.491889916875717</v>
+        <v>3.462076420699161</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.852131977771414</v>
+        <v>-2.926681458404018</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9696218641768853</v>
+        <v>1.006099757313029</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7881802342060701</v>
       </c>
       <c r="E36" t="n">
-        <v>3.235074531063418</v>
+        <v>3.212825770783833</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.783263919157145</v>
+        <v>-2.84677873873987</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8971744860807787</v>
+        <v>0.9322452061224792</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.7973216836181823</v>
       </c>
       <c r="E37" t="n">
-        <v>2.985686941484537</v>
+        <v>2.957538757538317</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.6845587540795</v>
+        <v>-2.746680566739874</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8417642909536305</v>
+        <v>0.8695205441386469</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8075965332033155</v>
       </c>
       <c r="E38" t="n">
-        <v>2.701784260613775</v>
+        <v>2.683808962248521</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.593488368749724</v>
+        <v>-2.646581607730317</v>
       </c>
       <c r="G38" t="n">
-        <v>0.7758963127845606</v>
+        <v>0.8065660753631045</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.8174935172862943</v>
       </c>
       <c r="E39" t="n">
-        <v>2.447488879414678</v>
+        <v>2.43283633541449</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.482039944866029</v>
+        <v>-2.543652562340662</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7063529999672536</v>
+        <v>0.7369267473793982</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8250897486506836</v>
       </c>
       <c r="E40" t="n">
-        <v>2.212728649530044</v>
+        <v>2.20006566569918</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.386678783411587</v>
+        <v>-2.452035992375795</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6517896271273653</v>
+        <v>0.675653331025405</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8274836184783846</v>
       </c>
       <c r="E41" t="n">
-        <v>2.011386419609746</v>
+        <v>1.997295800435862</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.290353535245349</v>
+        <v>-2.3514058019128</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5868361540677711</v>
+        <v>0.6098042410857908</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.824220455325451</v>
       </c>
       <c r="E42" t="n">
-        <v>1.760947385257836</v>
+        <v>1.757793050938749</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.192128445999701</v>
+        <v>-2.251354850486443</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5164287047528701</v>
+        <v>0.5372624218424059</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8135877094656226</v>
       </c>
       <c r="E43" t="n">
-        <v>1.543920054793776</v>
+        <v>1.540520173491766</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.110661938338541</v>
+        <v>-2.170686370519783</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4627845590798213</v>
+        <v>0.4825589613007218</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7965517175755618</v>
       </c>
       <c r="E44" t="n">
-        <v>1.315597563115262</v>
+        <v>1.321005892816051</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.022043874799752</v>
+        <v>-2.081975439852836</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4136263679024795</v>
+        <v>0.4249656016523297</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7725562613957098</v>
       </c>
       <c r="E45" t="n">
-        <v>1.104699463109547</v>
+        <v>1.108577846224431</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.942649563311785</v>
+        <v>-1.999483458734149</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3541174269834644</v>
+        <v>0.3633695113784698</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.7426300354854098</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9057544643109886</v>
+        <v>0.9135600251335187</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.875575099486238</v>
+        <v>-1.931695964246653</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2851549272219174</v>
+        <v>0.2956819671051764</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7077949256587969</v>
       </c>
       <c r="E47" t="n">
-        <v>0.7456499613496466</v>
+        <v>0.7565217114204704</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.826762405506022</v>
+        <v>-1.877079074756641</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2462923951170034</v>
+        <v>0.2529741062869248</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.669179602026657</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5847663189232607</v>
+        <v>0.5935981402128788</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.760726794300533</v>
+        <v>-1.81416316944957</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2010613816473068</v>
+        <v>0.2034035220998023</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6287913520787779</v>
       </c>
       <c r="E49" t="n">
-        <v>0.4576453866487746</v>
+        <v>0.4696189501045089</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.71234144651175</v>
+        <v>-1.764652397989057</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1483034087395504</v>
+        <v>0.1572359672529318</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.5882192263694838</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3558252377300757</v>
+        <v>0.3568546462354063</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.650288103683152</v>
+        <v>-1.708203350241851</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1141456197882042</v>
+        <v>0.1173125462602611</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5493103978812567</v>
       </c>
       <c r="E51" t="n">
-        <v>0.225403587358222</v>
+        <v>0.2293118768364116</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.598228208255693</v>
+        <v>-1.650061444929685</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07723014933633912</v>
+        <v>0.08134463531941911</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.5128449189573787</v>
       </c>
       <c r="E52" t="n">
-        <v>0.1185324110792692</v>
+        <v>0.1219779389357964</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.554904118951452</v>
+        <v>-1.612449471016645</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04647224168700238</v>
+        <v>0.04803052061709006</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4789964227253587</v>
       </c>
       <c r="E53" t="n">
-        <v>0.02783113323343834</v>
+        <v>0.03802290704386029</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.535428780363599</v>
+        <v>-1.583603209590127</v>
       </c>
       <c r="G53" t="n">
-        <v>0.007090283272059174</v>
+        <v>0.008225151058516969</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.4476368487463142</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.06374529924383568</v>
+        <v>-0.05065260819285656</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.517788748071182</v>
+        <v>-1.567147626686489</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01361279023040877</v>
+        <v>-0.01125490958670034</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.4184951608730513</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.1358479671523776</v>
+        <v>-0.1233030347556111</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.504962853261263</v>
+        <v>-1.556417538336583</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04334915947002137</v>
+        <v>-0.04079767447439295</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3906245173458945</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2043209469672001</v>
+        <v>-0.184475713885841</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.510518353749894</v>
+        <v>-1.560785441398192</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.07447853563198507</v>
+        <v>-0.07460917921905302</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3641549957171357</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2598759518535079</v>
+        <v>-0.2437154975351137</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.507068103836003</v>
+        <v>-1.559336556797035</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1074652543570836</v>
+        <v>-0.0978841999657263</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.3391517104380893</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3440088479061509</v>
+        <v>-0.3226840368507692</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.506261419036336</v>
+        <v>-1.558311870349068</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1277590828880134</v>
+        <v>-0.1209797825325713</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3153556045402997</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4180821877545613</v>
+        <v>-0.3941744113211252</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.525935084033474</v>
+        <v>-1.57220731115191</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1513740917648876</v>
+        <v>-0.1456241999147762</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2930391777906815</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4867582160360316</v>
+        <v>-0.4722803881583079</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.540531750354855</v>
+        <v>-1.584923024623338</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1836981484399185</v>
+        <v>-0.1728893591339467</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2712106257113321</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5586578354779257</v>
+        <v>-0.5411531688299408</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.56936305859972</v>
+        <v>-1.610792815891475</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2058918180502582</v>
+        <v>-0.1966759360950427</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2489782505744005</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6135124018552547</v>
+        <v>-0.5943502930725402</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.59823686536086</v>
+        <v>-1.646161025547102</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2186366508754299</v>
+        <v>-0.2121800244398545</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2252488225971493</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6658202052943192</v>
+        <v>-0.6444702099329966</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.643051550772972</v>
+        <v>-1.688365200246537</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2520341885911879</v>
+        <v>-0.2435565216038623</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1988847856613384</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7216522375459758</v>
+        <v>-0.6970928171963212</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.684548203877383</v>
+        <v>-1.726629605085357</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2734581628512115</v>
+        <v>-0.2689737823746259</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.169735333187272</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.7973043185730508</v>
+        <v>-0.7660679091108387</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.729184238119228</v>
+        <v>-1.77148127994682</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2999819590642494</v>
+        <v>-0.2887009640218874</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.137594645491025</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.8716161223183383</v>
+        <v>-0.8274137303444117</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.768220699337046</v>
+        <v>-1.810554730613988</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3202254189832975</v>
+        <v>-0.3132273299699947</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1027919694648612</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9244095106563239</v>
+        <v>-0.8811475951073745</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.798476494886688</v>
+        <v>-1.844867560448783</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3438057994395032</v>
+        <v>-0.3352163770945653</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.06555038776349656</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9651419774773432</v>
+        <v>-0.9060139491856828</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.831932271309934</v>
+        <v>-1.880879543925021</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3684140143819181</v>
+        <v>-0.3562610127463555</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.02707189328672664</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.987711050648113</v>
+        <v>-0.9222436603454142</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.870263571961409</v>
+        <v>-1.930629566291972</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3870409566633904</v>
+        <v>-0.3763643849636079</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.01238190018269163</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9852603028762479</v>
+        <v>-0.9200077661836066</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.901921031538569</v>
+        <v>-1.958093838929987</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4102782009511525</v>
+        <v>-0.3931245405672176</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.05152283697625257</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9904758152346778</v>
+        <v>-0.9359683200735955</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.927703464745474</v>
+        <v>-1.985711578432329</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4197459259657761</v>
+        <v>-0.4019894162583831</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.09016958482109137</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9926086111440402</v>
+        <v>-0.9285901054424985</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.971027554049715</v>
+        <v>-2.026812365727733</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4247875092113023</v>
+        <v>-0.4078557855234707</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1282262919296993</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9556860576061292</v>
+        <v>-0.8876656082886807</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.992365744267628</v>
+        <v>-2.057283014887432</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4372112421357286</v>
+        <v>-0.4207344099739529</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1656936670012447</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.9026864727632532</v>
+        <v>-0.8395399736549122</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.030538068987851</v>
+        <v>-2.090769484683543</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4374898435201988</v>
+        <v>-0.4163964132756483</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.2030266161194025</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.8437882512633027</v>
+        <v>-0.7786836723680637</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.055938802557841</v>
+        <v>-2.119382004270547</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4442612737800343</v>
+        <v>-0.4242303064423618</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.2399275699694971</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.7540250888137671</v>
+        <v>-0.6920166055301266</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.087712739549977</v>
+        <v>-2.141800758615233</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4361314650185163</v>
+        <v>-0.4189116958314868</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.2769135112420807</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.6593714489543503</v>
+        <v>-0.5901870124966998</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.081977013871958</v>
+        <v>-2.129470679828524</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.421839371397106</v>
+        <v>-0.4082917888200711</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3121865710053335</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.5478033996174362</v>
+        <v>-0.4806998164381453</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.086691201140253</v>
+        <v>-2.126727951509658</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4138323361270494</v>
+        <v>-0.4003508623531091</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3451894590252435</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.3903637110284562</v>
+        <v>-0.3241982432454605</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.069912157307188</v>
+        <v>-2.105629799207743</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3886810845877858</v>
+        <v>-0.3764619741491285</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3748085189592105</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.250485353775828</v>
+        <v>-0.1799252246061608</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.036819979300962</v>
+        <v>-2.072429013882148</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.369219912172024</v>
+        <v>-0.3556298310787139</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4000530410243774</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.0498388403071441</v>
+        <v>0.01666818962517386</v>
       </c>
       <c r="F81" t="n">
-        <v>-2.002880191997916</v>
+        <v>-2.043548124034962</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3427984272018707</v>
+        <v>-0.32627909652382</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4200287487113893</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1221683952494738</v>
+        <v>0.183954941837011</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.959591518123905</v>
+        <v>-2.001484037037323</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3227863480936538</v>
+        <v>-0.2980034170287744</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.4333499202237795</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3284436010959289</v>
+        <v>0.3957502327418676</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.901751037473468</v>
+        <v>-1.939191443302287</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2836231783365714</v>
+        <v>-0.2641494137678392</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.4399287407757618</v>
       </c>
       <c r="E84" t="n">
-        <v>0.53960298827578</v>
+        <v>0.59332111284753</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.820641045143283</v>
+        <v>-1.85202777343158</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.2532776636970154</v>
+        <v>-0.2284475120584971</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4394257218058794</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7226960405037187</v>
+        <v>0.7699732788311061</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.704847541475238</v>
+        <v>-1.735120651235214</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2279564180926512</v>
+        <v>-0.1977793234990745</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.4330527801201457</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9368838404729524</v>
+        <v>0.9892703448680819</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.614394171641012</v>
+        <v>-1.636892413951323</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1941323211950207</v>
+        <v>-0.1642794745404319</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4216399359377595</v>
       </c>
       <c r="E87" t="n">
-        <v>1.14813609478096</v>
+        <v>1.19268083591377</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.49383768611191</v>
+        <v>-1.505845877988313</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1558443060693815</v>
+        <v>-0.1322639256131759</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.4065460652777425</v>
       </c>
       <c r="E88" t="n">
-        <v>1.31778544969387</v>
+        <v>1.353100142699372</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.338447370418863</v>
+        <v>-1.356585579763172</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1291158873705746</v>
+        <v>-0.1016917522201527</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.3897794825788399</v>
       </c>
       <c r="E89" t="n">
-        <v>1.451008854101639</v>
+        <v>1.481544825054872</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.156924402264422</v>
+        <v>-1.176303725685876</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1014666674858067</v>
+        <v>-0.07425345089763907</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.3732505161709394</v>
       </c>
       <c r="E90" t="n">
-        <v>1.566282144450095</v>
+        <v>1.594268204426821</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9714868485553062</v>
+        <v>-0.9886090285568151</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07655466685298068</v>
+        <v>-0.05337880931094935</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3592041020410561</v>
       </c>
       <c r="E91" t="n">
-        <v>1.642357636620799</v>
+        <v>1.67773056833379</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.7765146740189114</v>
+        <v>-0.789421630813577</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.07988214327541034</v>
+        <v>-0.05546595866579406</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.3499722482736407</v>
       </c>
       <c r="E92" t="n">
-        <v>1.703958448952023</v>
+        <v>1.726062399472449</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.5725800346058303</v>
+        <v>-0.5756336317011537</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.0736348613829679</v>
+        <v>-0.05092963555820548</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.3468845849424102</v>
       </c>
       <c r="E93" t="n">
-        <v>1.712821750624067</v>
+        <v>1.727257079985516</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4002516991484671</v>
+        <v>-0.4001399437908548</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.07819007272001209</v>
+        <v>-0.05995348718062232</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.3502401116499111</v>
       </c>
       <c r="E94" t="n">
-        <v>1.699540177278532</v>
+        <v>1.711798638195222</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2152934342617872</v>
+        <v>-0.2135147926547174</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.09738208786603138</v>
+        <v>-0.0862222922960095</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3579803144640686</v>
       </c>
       <c r="E95" t="n">
-        <v>1.667113809360617</v>
+        <v>1.677110404799997</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.0743305778345828</v>
+        <v>-0.07700168828343007</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.102897450867069</v>
+        <v>-0.08970244857320532</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3655019220510023</v>
       </c>
       <c r="E96" t="n">
-        <v>1.606128438505821</v>
+        <v>1.605234395644923</v>
       </c>
       <c r="F96" t="n">
-        <v>0.03302382231460931</v>
+        <v>0.04145899078565969</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.1155305283346283</v>
+        <v>-0.1088519652029495</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3679721580473156</v>
       </c>
       <c r="E97" t="n">
-        <v>1.512905582027667</v>
+        <v>1.500974517088208</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0959515327650895</v>
+        <v>0.1054224058179557</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1373448593367345</v>
+        <v>-0.1342534857825</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3592574942490096</v>
       </c>
       <c r="E98" t="n">
-        <v>1.380352709765572</v>
+        <v>1.377310130804098</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1443730829936626</v>
+        <v>0.1514168185614831</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1458508586682435</v>
+        <v>-0.1422857053584974</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.3396327001293851</v>
       </c>
       <c r="E99" t="n">
-        <v>1.252635224244113</v>
+        <v>1.24935182035708</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1557437971259387</v>
+        <v>0.1684335392818649</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1607505236704758</v>
+        <v>-0.1587279090996044</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3087197063320832</v>
       </c>
       <c r="E100" t="n">
-        <v>1.124280260978527</v>
+        <v>1.123247704434954</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1734845666421188</v>
+        <v>0.1911308950110208</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1679138846915152</v>
+        <v>-0.1659337686369189</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2732351219808932</v>
       </c>
       <c r="E101" t="n">
-        <v>1.013028589484994</v>
+        <v>1.00673093898067</v>
       </c>
       <c r="F101" t="n">
-        <v>0.185206287038445</v>
+        <v>0.2006584327522539</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1916847214613982</v>
+        <v>-0.1892213815365626</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2330823831009502</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8968927366580658</v>
+        <v>0.8930914804801247</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1813294779426814</v>
+        <v>0.2050530941389254</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1939056624415535</v>
+        <v>-0.1976077554148527</v>
       </c>
     </row>
   </sheetData>
